--- a/latestPageObjectModelFramework-master/src/main/resources/configfile/testData.xlsx
+++ b/latestPageObjectModelFramework-master/src/main/resources/configfile/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C3F483E1-6B0E-4100-9656-39981E7CCE89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5A3C5845-CBF0-4BEF-AEAD-717EDB9460EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" activeTab="2" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I16"/>
+  <oleSize ref="A1:H16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C113A96-F430-7948-86CC-28CFE8B182AD}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AD0CFE-F178-DB43-95FD-EA2A075B2340}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
